--- a/example.xlsx
+++ b/example.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Modellator\Documents\Kraftsystem\Prosjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A37B3E3-C562-422D-94DF-23D3C1700C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAFAC76-CFEB-42D0-B203-9005F93246C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{EF9BD513-64C7-4099-9C7B-5E145CE35D48}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{EF9BD513-64C7-4099-9C7B-5E145CE35D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bus</t>
   </si>
@@ -75,6 +74,9 @@
   </si>
   <si>
     <t>Shunt</t>
+  </si>
+  <si>
+    <t>Pmax</t>
   </si>
 </sst>
 </file>
@@ -428,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CA8750-DF1E-428A-8D6E-0B475EF31351}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,8 +463,11 @@
       <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,8 +492,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -513,8 +521,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -528,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>-10000</v>
       </c>
       <c r="F4" s="1">
         <v>1.5</v>
@@ -539,8 +550,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -565,8 +579,11 @@
       <c r="H5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -590,6 +607,9 @@
       </c>
       <c r="H6">
         <v>0</v>
+      </c>
+      <c r="I6">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
